--- a/GroupMessageAnalysis.xlsx
+++ b/GroupMessageAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="0" windowWidth="22300" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-400" yWindow="0" windowWidth="22300" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,8 +229,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -324,16 +328,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -378,6 +382,8 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -422,6 +428,8 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,11 +793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069971912"/>
-        <c:axId val="-2070473480"/>
+        <c:axId val="-2105632648"/>
+        <c:axId val="-2105572408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069971912"/>
+        <c:axId val="-2105632648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070473480"/>
+        <c:crossAx val="-2105572408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070473480"/>
+        <c:axId val="-2105572408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069971912"/>
+        <c:crossAx val="-2105632648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,11 +959,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070306600"/>
-        <c:axId val="-2070771336"/>
+        <c:axId val="-2105640984"/>
+        <c:axId val="-2105823144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070306600"/>
+        <c:axId val="-2105640984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070771336"/>
+        <c:crossAx val="-2105823144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -972,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070771336"/>
+        <c:axId val="-2105823144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070306600"/>
+        <c:crossAx val="-2105640984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1117,11 +1125,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127741960"/>
-        <c:axId val="-2071262248"/>
+        <c:axId val="-2105663096"/>
+        <c:axId val="-2105610872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127741960"/>
+        <c:axId val="-2105663096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071262248"/>
+        <c:crossAx val="-2105610872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071262248"/>
+        <c:axId val="-2105610872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127741960"/>
+        <c:crossAx val="-2105663096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,11 +1691,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070980536"/>
-        <c:axId val="-2071058920"/>
+        <c:axId val="-2106171144"/>
+        <c:axId val="-2106511976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070980536"/>
+        <c:axId val="-2106171144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071058920"/>
+        <c:crossAx val="-2106511976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1704,7 +1712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071058920"/>
+        <c:axId val="-2106511976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070980536"/>
+        <c:crossAx val="-2106171144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1849,11 +1857,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070664376"/>
-        <c:axId val="-2128275448"/>
+        <c:axId val="-2106481288"/>
+        <c:axId val="-2106478280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070664376"/>
+        <c:axId val="-2106481288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128275448"/>
+        <c:crossAx val="-2106478280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1870,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128275448"/>
+        <c:axId val="-2106478280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070664376"/>
+        <c:crossAx val="-2106481288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2039,11 +2047,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144847800"/>
-        <c:axId val="-2144844744"/>
+        <c:axId val="2136597112"/>
+        <c:axId val="2136925912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144847800"/>
+        <c:axId val="2136597112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144844744"/>
+        <c:crossAx val="2136925912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2060,7 +2068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144844744"/>
+        <c:axId val="2136925912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144847800"/>
+        <c:crossAx val="2136597112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2175,11 +2183,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075761896"/>
-        <c:axId val="2075764840"/>
+        <c:axId val="2136476504"/>
+        <c:axId val="2136167160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075761896"/>
+        <c:axId val="2136476504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075764840"/>
+        <c:crossAx val="2136167160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075764840"/>
+        <c:axId val="2136167160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075761896"/>
+        <c:crossAx val="2136476504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2303,25 +2311,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Davis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mehul</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Joanna</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Natalie</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Joanna</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mehul</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Adil</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Brian</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Davis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2333,25 +2341,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46.0</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.0</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.0</c:v>
+                  <c:v>221.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,11 +2507,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075234184"/>
-        <c:axId val="2075231160"/>
+        <c:axId val="-2106515976"/>
+        <c:axId val="2033634904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075234184"/>
+        <c:axId val="-2106515976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075231160"/>
+        <c:crossAx val="2033634904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2520,7 +2528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075231160"/>
+        <c:axId val="2033634904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,7 +2538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075234184"/>
+        <c:crossAx val="-2106515976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2668,11 +2676,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2110285192"/>
-        <c:axId val="-2110283784"/>
+        <c:axId val="2033698136"/>
+        <c:axId val="2033701608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110285192"/>
+        <c:axId val="2033698136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110283784"/>
+        <c:crossAx val="2033701608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2689,7 +2697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110283784"/>
+        <c:axId val="2033701608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,7 +2707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110285192"/>
+        <c:crossAx val="2033698136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2829,11 +2837,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073451688"/>
-        <c:axId val="2073846808"/>
+        <c:axId val="2033622344"/>
+        <c:axId val="-2105861304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073451688"/>
+        <c:axId val="2033622344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,7 +2850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073846808"/>
+        <c:crossAx val="-2105861304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2850,7 +2858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073846808"/>
+        <c:axId val="-2105861304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2860,7 +2868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073451688"/>
+        <c:crossAx val="2033622344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2995,11 +3003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2071535480"/>
-        <c:axId val="-2071015128"/>
+        <c:axId val="-2105560728"/>
+        <c:axId val="-2105748104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2071535480"/>
+        <c:axId val="-2105560728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071015128"/>
+        <c:crossAx val="-2105748104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +3024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071015128"/>
+        <c:axId val="-2105748104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071535480"/>
+        <c:crossAx val="-2105560728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3156,11 +3164,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2110360936"/>
-        <c:axId val="-2110596344"/>
+        <c:axId val="-2105857256"/>
+        <c:axId val="-2105783832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110360936"/>
+        <c:axId val="-2105857256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110596344"/>
+        <c:crossAx val="-2105783832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +3185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110596344"/>
+        <c:axId val="-2105783832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3187,7 +3195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110360936"/>
+        <c:crossAx val="-2105857256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3299,15 +3307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3953,8 +3961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H168" workbookViewId="0">
-      <selection activeCell="L193" sqref="L193"/>
+    <sheetView tabSelected="1" topLeftCell="G54" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4093,10 +4101,10 @@
       <c r="H20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:12">
       <c r="H21" t="s">
@@ -4123,10 +4131,10 @@
       <c r="H24" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="1" t="s">
         <v>15</v>
       </c>
@@ -4340,10 +4348,10 @@
       <c r="H47" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="4"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:12">
       <c r="H48" t="s">
@@ -4500,10 +4508,10 @@
       <c r="H63" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K63" s="4"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:12">
       <c r="H64" t="s">
@@ -4545,10 +4553,10 @@
       <c r="H71" t="s">
         <v>9</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="4"/>
+      <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11">
       <c r="C72" s="1"/>
@@ -4559,10 +4567,10 @@
         <v>9</v>
       </c>
       <c r="J72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K72">
-        <v>46</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4570,10 +4578,10 @@
         <v>9</v>
       </c>
       <c r="J73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4581,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="J74" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>88</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4592,10 +4600,10 @@
         <v>9</v>
       </c>
       <c r="J75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>156</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4603,10 +4611,10 @@
         <v>9</v>
       </c>
       <c r="J76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>182</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4614,10 +4622,10 @@
         <v>9</v>
       </c>
       <c r="J77" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K77">
-        <v>203</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4625,10 +4633,10 @@
         <v>9</v>
       </c>
       <c r="J78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K78">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4703,7 +4711,7 @@
       <c r="H89" t="s">
         <v>9</v>
       </c>
-      <c r="J89" s="5" t="s">
+      <c r="J89" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K89">
@@ -4736,7 +4744,7 @@
       <c r="H92" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="5" t="s">
+      <c r="J92" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K92">
@@ -4762,7 +4770,7 @@
       <c r="H94" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="J94" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K94">
@@ -4782,7 +4790,7 @@
       <c r="H96" t="s">
         <v>9</v>
       </c>
-      <c r="J96" s="5" t="s">
+      <c r="J96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K96">
@@ -4826,7 +4834,7 @@
       <c r="H100" t="s">
         <v>9</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K100">
@@ -4859,7 +4867,7 @@
       <c r="H103" t="s">
         <v>9</v>
       </c>
-      <c r="J103" s="5" t="s">
+      <c r="J103" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K103">
@@ -4879,7 +4887,7 @@
       <c r="H105" t="s">
         <v>9</v>
       </c>
-      <c r="J105" s="6" t="s">
+      <c r="J105" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K105">
@@ -4890,7 +4898,7 @@
       <c r="H106" t="s">
         <v>9</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="J106" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K106">
@@ -4901,7 +4909,7 @@
       <c r="H107" t="s">
         <v>9</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K107">
@@ -4912,7 +4920,7 @@
       <c r="H108" t="s">
         <v>9</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K108">
@@ -4923,7 +4931,7 @@
       <c r="H109" t="s">
         <v>9</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K109">
@@ -4934,7 +4942,7 @@
       <c r="H110" t="s">
         <v>9</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J110" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K110">
@@ -4945,7 +4953,7 @@
       <c r="H111" t="s">
         <v>9</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J111" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K111">
@@ -4956,7 +4964,7 @@
       <c r="H112" t="s">
         <v>9</v>
       </c>
-      <c r="J112" s="6" t="s">
+      <c r="J112" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K112">
@@ -4976,7 +4984,7 @@
       <c r="H114" t="s">
         <v>9</v>
       </c>
-      <c r="J114" s="5" t="s">
+      <c r="J114" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K114">
@@ -4987,7 +4995,7 @@
       <c r="H115" t="s">
         <v>9</v>
       </c>
-      <c r="J115" s="5" t="s">
+      <c r="J115" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K115">
@@ -5053,7 +5061,7 @@
       <c r="H121" t="s">
         <v>9</v>
       </c>
-      <c r="J121" s="5" t="s">
+      <c r="J121" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K121">
@@ -5073,7 +5081,7 @@
       <c r="H123" t="s">
         <v>9</v>
       </c>
-      <c r="J123" s="6" t="s">
+      <c r="J123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K123">
@@ -5084,7 +5092,7 @@
       <c r="H124" t="s">
         <v>9</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="J124" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K124">
@@ -5095,7 +5103,7 @@
       <c r="H125" t="s">
         <v>9</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="J125" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K125">
@@ -5106,7 +5114,7 @@
       <c r="H126" t="s">
         <v>9</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K126">
@@ -5117,7 +5125,7 @@
       <c r="H127" t="s">
         <v>9</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K127">
@@ -5128,7 +5136,7 @@
       <c r="H128" t="s">
         <v>9</v>
       </c>
-      <c r="J128" s="6" t="s">
+      <c r="J128" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K128">
@@ -5139,7 +5147,7 @@
       <c r="H129" t="s">
         <v>9</v>
       </c>
-      <c r="J129" s="6" t="s">
+      <c r="J129" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K129">
@@ -5150,7 +5158,7 @@
       <c r="H130" t="s">
         <v>9</v>
       </c>
-      <c r="J130" s="6" t="s">
+      <c r="J130" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K130">
@@ -5170,7 +5178,7 @@
       <c r="H132" t="s">
         <v>9</v>
       </c>
-      <c r="J132" s="6" t="s">
+      <c r="J132" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K132">
@@ -5181,7 +5189,7 @@
       <c r="H133" t="s">
         <v>9</v>
       </c>
-      <c r="J133" s="6" t="s">
+      <c r="J133" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K133">
@@ -5192,7 +5200,7 @@
       <c r="H134" t="s">
         <v>9</v>
       </c>
-      <c r="J134" s="6" t="s">
+      <c r="J134" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K134">
@@ -5203,7 +5211,7 @@
       <c r="H135" t="s">
         <v>9</v>
       </c>
-      <c r="J135" s="6" t="s">
+      <c r="J135" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K135">
@@ -5214,7 +5222,7 @@
       <c r="H136" t="s">
         <v>9</v>
       </c>
-      <c r="J136" s="6" t="s">
+      <c r="J136" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K136">
@@ -5225,7 +5233,7 @@
       <c r="H137" t="s">
         <v>9</v>
       </c>
-      <c r="J137" s="6" t="s">
+      <c r="J137" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K137">
@@ -5236,7 +5244,7 @@
       <c r="H138" t="s">
         <v>9</v>
       </c>
-      <c r="J138" s="6" t="s">
+      <c r="J138" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K138">
@@ -5247,7 +5255,7 @@
       <c r="H139" t="s">
         <v>9</v>
       </c>
-      <c r="J139" s="6" t="s">
+      <c r="J139" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K139">
@@ -5259,16 +5267,16 @@
       <c r="H140" t="s">
         <v>9</v>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K140" s="4"/>
+      <c r="K140" s="5"/>
     </row>
     <row r="141" spans="8:11">
       <c r="H141" t="s">
         <v>9</v>
       </c>
-      <c r="J141" s="6" t="s">
+      <c r="J141" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K141">
@@ -5279,7 +5287,7 @@
       <c r="H142" t="s">
         <v>9</v>
       </c>
-      <c r="J142" s="6" t="s">
+      <c r="J142" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K142">
@@ -5290,7 +5298,7 @@
       <c r="H143" t="s">
         <v>9</v>
       </c>
-      <c r="J143" s="6" t="s">
+      <c r="J143" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K143">
@@ -5301,7 +5309,7 @@
       <c r="H144" t="s">
         <v>9</v>
       </c>
-      <c r="J144" s="6" t="s">
+      <c r="J144" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K144">
@@ -5312,7 +5320,7 @@
       <c r="H145" t="s">
         <v>9</v>
       </c>
-      <c r="J145" s="6" t="s">
+      <c r="J145" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K145">
@@ -5323,7 +5331,7 @@
       <c r="H146" t="s">
         <v>9</v>
       </c>
-      <c r="J146" s="6" t="s">
+      <c r="J146" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K146">
@@ -5334,7 +5342,7 @@
       <c r="H147" t="s">
         <v>9</v>
       </c>
-      <c r="J147" s="6" t="s">
+      <c r="J147" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K147">
@@ -5345,7 +5353,7 @@
       <c r="H148" t="s">
         <v>9</v>
       </c>
-      <c r="J148" s="6" t="s">
+      <c r="J148" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K148">
@@ -5367,7 +5375,7 @@
       <c r="H151" t="s">
         <v>9</v>
       </c>
-      <c r="J151" s="6" t="s">
+      <c r="J151" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K151" t="s">

--- a/GroupMessageAnalysis.xlsx
+++ b/GroupMessageAnalysis.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-400" yWindow="0" windowWidth="22300" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2920" yWindow="0" windowWidth="22300" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>How often does each person say another name</t>
   </si>
   <si>
-    <t>Most Lol's (VERY SURPRISING)</t>
-  </si>
-  <si>
     <t>Word Cloud</t>
   </si>
   <si>
@@ -165,7 +162,10 @@
     <t>Average Message Length</t>
   </si>
   <si>
-    <t>(DO emoji bar chart lol)</t>
+    <t>Most Lol's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Sum </t>
   </si>
 </sst>
 </file>
@@ -1198,577 +1198,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>All Name Mentions</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Brian's Name</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$87:$J$93</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Mehul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Natalie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brian</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Joanna</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Adil</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Davis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$141:$K$147</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>106.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Joanna's Name</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$87:$J$93</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Mehul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Natalie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brian</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Joanna</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Adil</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Davis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$132:$K$138</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>166.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>189.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Natalie's Name</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$87:$J$93</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Mehul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Natalie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brian</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Joanna</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Adil</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Davis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$123:$K$129</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Adil's Name</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$87:$J$93</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Mehul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Natalie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brian</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Joanna</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Adil</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Davis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$114:$K$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>131.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Davis's Name</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$87:$J$93</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Mehul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Natalie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brian</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Joanna</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Adil</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Davis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$105:$K$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>185.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Amy's Name</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$87:$J$93</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Mehul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Natalie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brian</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Joanna</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Adil</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Davis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$96:$K$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Mehul's Name</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$87:$J$93</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Mehul</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Natalie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brian</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Joanna</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Adil</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Davis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$87:$K$93</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>118.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2106171144"/>
-        <c:axId val="-2106511976"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2106171144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106511976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2106511976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106171144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Average Message Length</a:t>
             </a:r>
           </a:p>
@@ -1915,6 +1344,175 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2106481288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t># of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0"/>
+              <a:t>😎 Sent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$172:$J$178</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Joanna</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Natalie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Davis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mehul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Brian</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$172:$K$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2107146312"/>
+        <c:axId val="-2108269640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2107146312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108269640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2108269640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107146312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3576,20 +3174,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="18" name="Chart 17"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3608,18 +3206,18 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3961,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G54" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="H157" workbookViewId="0">
+      <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3984,7 +3582,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V1">
         <f>300-SUM(U:U)</f>
@@ -4035,7 +3633,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4046,7 +3644,7 @@
         <v>3876</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -4300,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="L39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4554,7 +4152,7 @@
         <v>9</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K71" s="5"/>
     </row>
@@ -4682,7 +4280,7 @@
         <v>9</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="6:11">
@@ -4771,7 +4369,7 @@
         <v>9</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <f>SUM(K87:K93)</f>
@@ -4783,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="6:11">
@@ -4868,7 +4466,7 @@
         <v>9</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K103">
         <f>SUM(K96:K102)</f>
@@ -4880,7 +4478,7 @@
         <v>9</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="8:11">
@@ -4965,7 +4563,7 @@
         <v>9</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K112">
         <f>SUM(K105:K111)</f>
@@ -4977,7 +4575,7 @@
         <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="8:11">
@@ -5062,7 +4660,7 @@
         <v>9</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K121">
         <f>SUM(K114:K120)</f>
@@ -5074,7 +4672,7 @@
         <v>9</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="8:11">
@@ -5159,7 +4757,7 @@
         <v>9</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K130">
         <f>SUM(K123:K129)</f>
@@ -5171,7 +4769,7 @@
         <v>9</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="8:11">
@@ -5256,7 +4854,7 @@
         <v>9</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K139">
         <f>SUM(K132:K138)</f>
@@ -5268,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K140" s="5"/>
     </row>
@@ -5316,7 +4914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="8:11">
+    <row r="145" spans="8:12">
       <c r="H145" t="s">
         <v>9</v>
       </c>
@@ -5327,7 +4925,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="8:11">
+    <row r="146" spans="8:12">
       <c r="H146" t="s">
         <v>9</v>
       </c>
@@ -5338,7 +4936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="8:11">
+    <row r="147" spans="8:12">
       <c r="H147" t="s">
         <v>9</v>
       </c>
@@ -5349,172 +4947,184 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="8:11">
+    <row r="148" spans="8:12">
       <c r="H148" t="s">
         <v>9</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K148">
         <f>SUM(K141:K147)</f>
         <v>407</v>
       </c>
     </row>
-    <row r="149" spans="8:11">
+    <row r="149" spans="8:12">
       <c r="H149" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="8:11">
+    <row r="150" spans="8:12">
       <c r="H150" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="8:11">
+      <c r="J150" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K150">
+        <f>SUM(K148+K139+K130+K121+K112+K103+K94)</f>
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="151" spans="8:12">
       <c r="H151" t="s">
         <v>9</v>
       </c>
       <c r="J151" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K151" t="s">
         <v>43</v>
       </c>
-      <c r="K151" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="152" spans="8:11">
+    </row>
+    <row r="152" spans="8:12">
       <c r="H152" t="s">
         <v>9</v>
       </c>
       <c r="J152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K152" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="8:11">
+      <c r="L152">
+        <f>K130/K150</f>
+        <v>6.0105680317040951E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="8:12">
       <c r="H153" t="s">
         <v>9</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K153" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="8:11">
+      <c r="L153">
+        <f>K139/K150</f>
+        <v>0.23348745046235139</v>
+      </c>
+    </row>
+    <row r="154" spans="8:12">
       <c r="H154" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="8:11">
+    <row r="155" spans="8:12">
       <c r="H155" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="8:11">
+    <row r="156" spans="8:12">
       <c r="H156" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="8:11">
+    <row r="157" spans="8:12">
       <c r="H157" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="8:11">
+    <row r="158" spans="8:12">
       <c r="H158" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="8:11">
+    <row r="159" spans="8:12">
       <c r="H159" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="8:11">
+    <row r="160" spans="8:12">
       <c r="H160" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="8:14">
+    <row r="161" spans="8:11">
       <c r="H161" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="8:14">
+    <row r="162" spans="8:11">
       <c r="H162" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="8:14">
+    <row r="163" spans="8:11">
       <c r="H163" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="8:14">
+    <row r="164" spans="8:11">
       <c r="H164" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="8:14">
+    <row r="165" spans="8:11">
       <c r="H165" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="8:14">
+    <row r="166" spans="8:11">
       <c r="H166" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="8:14">
+    <row r="167" spans="8:11">
       <c r="H167" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="8:14">
+    <row r="168" spans="8:11">
       <c r="H168" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="8:14">
+    <row r="169" spans="8:11">
       <c r="H169" t="s">
         <v>9</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="170" spans="8:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="8:11">
       <c r="H170" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="8:14">
+    <row r="171" spans="8:11">
       <c r="H171" t="s">
         <v>9</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="172" spans="8:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="8:11">
       <c r="H172" t="s">
         <v>9</v>
       </c>
       <c r="J172" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K172">
-        <v>6</v>
-      </c>
-      <c r="N172" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="173" spans="8:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="8:11">
       <c r="H173" t="s">
         <v>9</v>
       </c>
@@ -5525,37 +5135,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="8:14">
+    <row r="174" spans="8:11">
       <c r="H174" t="s">
         <v>9</v>
       </c>
       <c r="J174" t="s">
+        <v>4</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="8:11">
+      <c r="H175" t="s">
+        <v>9</v>
+      </c>
+      <c r="J175" t="s">
+        <v>6</v>
+      </c>
+      <c r="K175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="8:11">
+      <c r="H176" t="s">
+        <v>9</v>
+      </c>
+      <c r="J176" t="s">
         <v>1</v>
       </c>
-      <c r="K174">
+      <c r="K176">
         <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="8:14">
-      <c r="H175" t="s">
-        <v>9</v>
-      </c>
-      <c r="J175" t="s">
-        <v>2</v>
-      </c>
-      <c r="K175">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="176" spans="8:14">
-      <c r="H176" t="s">
-        <v>9</v>
-      </c>
-      <c r="J176" t="s">
-        <v>3</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
       </c>
     </row>
     <row r="177" spans="8:11">
@@ -5563,10 +5173,10 @@
         <v>9</v>
       </c>
       <c r="J177" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="8:11">
@@ -5620,7 +5230,7 @@
         <v>9</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="187" spans="8:11">
@@ -7266,8 +6876,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="J187:K193">
-    <sortCondition ref="K187:K193"/>
+  <sortState ref="J172:K178">
+    <sortCondition ref="K172:K178"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="J140:K140"/>
